--- a/formats/kcrew_format_download.xlsx
+++ b/formats/kcrew_format_download.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fletch/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fletch/Desktop/bluffs_getto/formats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA307F95-1B80-E34C-870A-759A89239120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A914BB09-A8AC-EE49-8AEF-0D67F648F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="10220" windowWidth="28040" windowHeight="17440" xr2:uid="{F85BFE4E-8139-2846-B320-2FFF2B441F79}"/>
+    <workbookView xWindow="9980" yWindow="3460" windowWidth="16100" windowHeight="17440" xr2:uid="{F85BFE4E-8139-2846-B320-2FFF2B441F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
   <si>
     <t>Tuesday</t>
   </si>
@@ -59,9 +59,6 @@
     <t>O'fer</t>
   </si>
   <si>
-    <t>Geni</t>
-  </si>
-  <si>
     <t>Jaws</t>
   </si>
   <si>
@@ -74,28 +71,22 @@
     <t>Captain</t>
   </si>
   <si>
-    <t>T-wisk</t>
-  </si>
-  <si>
     <t>Chicken</t>
   </si>
   <si>
-    <t>Bops</t>
-  </si>
-  <si>
-    <t>Capitan</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>Goobie</t>
-  </si>
-  <si>
     <t>Smiles</t>
+  </si>
+  <si>
+    <t>T-Whisk</t>
+  </si>
+  <si>
+    <t>Surf Co</t>
   </si>
 </sst>
 </file>
@@ -488,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D4E555-9BAF-B545-AB55-5B77F960BA54}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -510,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -535,36 +526,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -586,36 +577,36 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -636,20 +627,20 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -657,118 +648,84 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
